--- a/IAP01N.xlsx
+++ b/IAP01N.xlsx
@@ -127,43 +127,43 @@
     <t>LAKON KRETEK 12'S</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20137757</t>
+  </si>
+  <si>
+    <t>OCHA  GUAVA 12'S</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>20137757</t>
-  </si>
-  <si>
-    <t>OCHA  GUAVA 12'S</t>
+    <t>20134733</t>
+  </si>
+  <si>
+    <t>POETRI KRETEK 12'S</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>20134733</t>
-  </si>
-  <si>
-    <t>POETRI KRETEK 12'S</t>
+    <t>20134739</t>
+  </si>
+  <si>
+    <t>POETRI MANGGA 12'S</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>20134739</t>
-  </si>
-  <si>
-    <t>POETRI MANGGA 12'S</t>
+    <t>20134740</t>
+  </si>
+  <si>
+    <t>VICTORY TEH MNS 12'S</t>
   </si>
   <si>
     <t>16</t>
-  </si>
-  <si>
-    <t>20134740</t>
-  </si>
-  <si>
-    <t>VICTORY TEH MNS 12'S</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
 </sst>
 </file>

--- a/IAP01N.xlsx
+++ b/IAP01N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t/>
   </si>
@@ -164,6 +164,51 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>20140983</t>
+  </si>
+  <si>
+    <t>HS MILD ORGNL 16'S</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>20140982</t>
+  </si>
+  <si>
+    <t>HS MILD MANGO ICE 16</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20140987</t>
+  </si>
+  <si>
+    <t>DJAVA FINE CUT 16'S</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20140988</t>
+  </si>
+  <si>
+    <t>KING DJAVA FLTR 20'S</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20140984</t>
+  </si>
+  <si>
+    <t>SEN FILTER 12'S</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -556,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -906,6 +951,106 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
